--- a/excel_routes/route_TUU_ATZ_threats.xlsx
+++ b/excel_routes/route_TUU_ATZ_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,26 +583,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>343</v>
+        <v>467</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-259</v>
+        <v>-79</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -628,26 +628,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>601</v>
+        <v>355</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>602</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1</v>
+        <v>-247</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>739</v>
+        <v>601</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>826</v>
+        <v>602</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-87</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -708,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -745,6 +745,51 @@
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>20-MAR-26</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>SM-328</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-812</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>739</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>826</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_TUU_ATZ_threats.xlsx
+++ b/excel_routes/route_TUU_ATZ_threats.xlsx
@@ -1,55 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_170126_at_23.33_RETRY\reports\excel_routes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8453FCC-4C94-41F7-B71B-FA0B151C475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THREAT_ALERT" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="THREAT_ALERT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Air Cairo Flight</t>
+  </si>
+  <si>
+    <t>Market Threat Airline</t>
+  </si>
+  <si>
+    <t>OAL Fare Threat</t>
+  </si>
+  <si>
+    <t>Our Fare</t>
+  </si>
+  <si>
+    <t>Fare Dif</t>
+  </si>
+  <si>
+    <t>OAL Baggage</t>
+  </si>
+  <si>
+    <t>Our Baggage</t>
+  </si>
+  <si>
+    <t>Bag Allowance Dif</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>06-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-328</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-812</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>13-FEB-26</t>
+  </si>
+  <si>
+    <t>27-FEB-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-590</t>
+  </si>
+  <si>
+    <t>13-MAR-26</t>
+  </si>
+  <si>
+    <t>20-MAR-26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003498DB"/>
-        <bgColor rgb="003498DB"/>
+        <fgColor rgb="FF3498DB"/>
+        <bgColor rgb="FF3498DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="FFD4EDDA"/>
+        <bgColor rgb="FFD4EDDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,99 +143,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,357 +473,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="153.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Air Cairo Flight</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Market Threat Airline</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>OAL Fare Threat</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Our Fare</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fare Dif</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OAL Baggage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Our Baggage</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Bag Allowance Dif</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IMPACT</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>06-FEB-26</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>SM-328</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>467</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>517</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>-50</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>-16</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>13-FEB-26</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>SM-328</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>467</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>546</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>-79</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>46</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>-16</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>27-FEB-26</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>SM-328</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
         <v>355</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>602</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>-247</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>27-FEB-26</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SM-328</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>601</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>602</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>-1</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>-16</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>13-MAR-26</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>SM-328</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>739</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>826</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>-87</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>-16</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>SM-328</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>739</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>826</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>-87</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>-16</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel_routes/route_TUU_ATZ_threats.xlsx
+++ b/excel_routes/route_TUU_ATZ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -551,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>427</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>46</v>
@@ -582,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -592,26 +583,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>602</v>
+        <v>517</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-202</v>
+        <v>-134</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -627,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -641,13 +632,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>601</v>
+        <v>383</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>602</v>
+        <v>517</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1</v>
+        <v>-134</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -672,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -686,13 +677,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>739</v>
+        <v>383</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>932</v>
+        <v>406</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-193</v>
+        <v>-23</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -703,9 +694,9 @@
       <c r="I5" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -717,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -727,33 +718,123 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>739</v>
+        <v>399</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>38</v>
+        <v>-203</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>SM-328</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-812</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>516</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>602</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-86</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>13-MAR-26</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>SM-328</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-812</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>917</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>932</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_TUU_ATZ_threats.xlsx
+++ b/excel_routes/route_TUU_ATZ_threats.xlsx
@@ -457,7 +457,7 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -538,26 +538,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>427</v>
+        <v>574</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4</v>
+        <v>-219</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-134</v>
+        <v>-143</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>46</v>
@@ -628,26 +628,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-134</v>
+        <v>-219</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>406</v>
+        <v>574</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-23</v>
+        <v>-143</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -708,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,26 +718,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-203</v>
+        <v>-153</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
         <v>516</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-86</v>
+        <v>-20</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>46</v>
@@ -798,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>917</v>
+        <v>757</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>932</v>
+        <v>754</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>46</v>

--- a/excel_routes/route_TUU_ATZ_threats.xlsx
+++ b/excel_routes/route_TUU_ATZ_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB1347E-F273-47D9-A2F2-F341A87875D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948BF7E8-2946-4C8D-8EEE-A4BC5E0A1428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -78,16 +78,16 @@
     <t>EgyptAir MS-812</t>
   </si>
   <si>
-    <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
     <t>13-FEB-26</t>
   </si>
   <si>
-    <t>Air Arabia Egypt E5-590</t>
+    <t>20-FEB-26</t>
   </si>
   <si>
     <t>27-FEB-26</t>
+  </si>
+  <si>
+    <t>06-MAR-26</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +131,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3CD"/>
-        <bgColor rgb="FFFFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -167,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,9 +170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +475,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,13 +483,13 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -551,10 +542,10 @@
         <v>355</v>
       </c>
       <c r="E2" s="2">
-        <v>701</v>
+        <v>574</v>
       </c>
       <c r="F2" s="2">
-        <v>-346</v>
+        <v>-219</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -583,13 +574,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="E3" s="2">
-        <v>701</v>
+        <v>574</v>
       </c>
       <c r="F3" s="2">
-        <v>-185</v>
+        <v>-143</v>
       </c>
       <c r="G3" s="2">
         <v>46</v>
@@ -600,8 +591,8 @@
       <c r="I3" s="2">
         <v>-16</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
@@ -609,7 +600,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -621,10 +612,10 @@
         <v>355</v>
       </c>
       <c r="E4" s="2">
-        <v>701</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2">
-        <v>-346</v>
+        <v>-219</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -644,31 +635,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2">
-        <v>701</v>
+        <v>574</v>
       </c>
       <c r="F5" s="2">
-        <v>-208</v>
+        <v>-143</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -688,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>516</v>
+        <v>383</v>
       </c>
       <c r="E6" s="2">
-        <v>701</v>
+        <v>536</v>
       </c>
       <c r="F6" s="2">
-        <v>-185</v>
+        <v>-153</v>
       </c>
       <c r="G6" s="2">
         <v>46</v>
@@ -705,8 +696,8 @@
       <c r="I6" s="2">
         <v>-16</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -714,36 +705,71 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>355</v>
+        <v>516</v>
       </c>
       <c r="E7" s="2">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="F7" s="2">
-        <v>-214</v>
+        <v>-20</v>
       </c>
       <c r="G7" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>757</v>
+      </c>
+      <c r="E8" s="2">
+        <v>754</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_TUU_ATZ_threats.xlsx
+++ b/excel_routes/route_TUU_ATZ_threats.xlsx
@@ -457,7 +457,7 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>569</v>
+        <v>826</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-214</v>
+        <v>-226</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,26 +583,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>546</v>
+        <v>746</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>569</v>
+        <v>826</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-23</v>
+        <v>-80</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
